--- a/Code/Results/Cases/Case_2_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.763581219606067</v>
+        <v>1.201286128529318</v>
       </c>
       <c r="C2">
-        <v>1.054690124592582</v>
+        <v>0.3356557433913565</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.474225882057681</v>
+        <v>0.4255167328346232</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.8161038350508676</v>
+        <v>0.4243298004187892</v>
       </c>
       <c r="H2">
-        <v>0.4392212704743486</v>
+        <v>0.5027521521928691</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.251787761935077</v>
+        <v>1.053283970701386</v>
       </c>
       <c r="C3">
-        <v>0.918013966937508</v>
+        <v>0.2944854172539522</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.257257514749369</v>
+        <v>0.3708373693408618</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.706179695642291</v>
+        <v>0.4081752012819067</v>
       </c>
       <c r="H3">
-        <v>0.4007382842372351</v>
+        <v>0.5030086175844133</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.941249032573467</v>
+        <v>0.9624234431025798</v>
       </c>
       <c r="C4">
-        <v>0.834968335657237</v>
+        <v>0.2691076642603889</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.127926713512508</v>
+        <v>0.3373969496919926</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.6437244495475198</v>
+        <v>0.3990250212695656</v>
       </c>
       <c r="H4">
-        <v>0.3797341183022525</v>
+        <v>0.5037832496148127</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.815458311969053</v>
+        <v>0.9253994836014385</v>
       </c>
       <c r="C5">
-        <v>0.8012989987242065</v>
+        <v>0.2587408941710976</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.076037846327424</v>
+        <v>0.3238001751638819</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6193879507102338</v>
+        <v>0.39548596248693</v>
       </c>
       <c r="H5">
-        <v>0.3717644063955419</v>
+        <v>0.5042525617249822</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.794611771643588</v>
+        <v>0.9192518053934009</v>
       </c>
       <c r="C6">
-        <v>0.7957173615610884</v>
+        <v>0.2570179757479139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.067466532080587</v>
+        <v>0.3215441955878049</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.6154100523571344</v>
+        <v>0.3949096573982871</v>
       </c>
       <c r="H6">
-        <v>0.3704747394505148</v>
+        <v>0.504339725194356</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.939549730496765</v>
+        <v>0.9619241163084098</v>
       </c>
       <c r="C7">
-        <v>0.8345136197577858</v>
+        <v>0.2689679564061009</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.127223825702259</v>
+        <v>0.3372134593206795</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6433919162235355</v>
+        <v>0.398976528911021</v>
       </c>
       <c r="H7">
-        <v>0.37962433602722</v>
+        <v>0.5037889588845417</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.586234221137772</v>
+        <v>1.150251581965676</v>
       </c>
       <c r="C8">
-        <v>1.007352471326783</v>
+        <v>0.3214806048942762</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.398503113591019</v>
+        <v>0.4066338917371013</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.7770591367882247</v>
+        <v>0.4185979467954439</v>
       </c>
       <c r="H8">
-        <v>0.425362849607879</v>
+        <v>0.5027115549025325</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.89287328474785</v>
+        <v>1.519730955940133</v>
       </c>
       <c r="C9">
-        <v>1.355702933209386</v>
+        <v>0.4236886130502171</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.969985400574643</v>
+        <v>0.5439627685100561</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.087036166739793</v>
+        <v>0.463340775190062</v>
       </c>
       <c r="H9">
-        <v>0.5395114240390058</v>
+        <v>0.505566334961685</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.891238506512764</v>
+        <v>1.791410350719502</v>
       </c>
       <c r="C10">
-        <v>1.621474063491462</v>
+        <v>0.4983432279729527</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.428517273026273</v>
+        <v>0.6457930840560522</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.356842865033201</v>
+        <v>0.500264868217414</v>
       </c>
       <c r="H10">
-        <v>0.6442266831198538</v>
+        <v>0.5107912738788514</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.35786388470467</v>
+        <v>1.915081600282861</v>
       </c>
       <c r="C11">
-        <v>1.745660395819925</v>
+        <v>0.532218142210013</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.649714354436441</v>
+        <v>0.6923671657365134</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.492296423855521</v>
+        <v>0.5179929272211155</v>
       </c>
       <c r="H11">
-        <v>0.6980403183731596</v>
+        <v>0.5138689993109722</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.536776269594498</v>
+        <v>1.96192646907997</v>
       </c>
       <c r="C12">
-        <v>1.793277532176944</v>
+        <v>0.545033839025109</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.735739237604463</v>
+        <v>0.7100432713122729</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.545788872416693</v>
+        <v>0.5248440704440895</v>
       </c>
       <c r="H12">
-        <v>0.7194775480223257</v>
+        <v>0.5151370067448227</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.498138378306976</v>
+        <v>1.951836977070855</v>
       </c>
       <c r="C13">
-        <v>1.782993930830457</v>
+        <v>0.5422742772429388</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.717103345228011</v>
+        <v>0.7062345931862382</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.534163808089261</v>
+        <v>0.5233623560704075</v>
       </c>
       <c r="H13">
-        <v>0.7148104607829282</v>
+        <v>0.514859330039144</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.372536102407309</v>
+        <v>1.918935282368579</v>
       </c>
       <c r="C14">
-        <v>1.749565291132967</v>
+        <v>0.533272735682317</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.656743389353622</v>
+        <v>0.693820577850417</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.496650819240699</v>
+        <v>0.5185537877710544</v>
       </c>
       <c r="H14">
-        <v>0.699781644502707</v>
+        <v>0.5139712538843924</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.295902895163749</v>
+        <v>1.898783810783641</v>
       </c>
       <c r="C15">
-        <v>1.729170087287059</v>
+        <v>0.5277574797835314</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.620080882363709</v>
+        <v>0.68622188337892</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.473971671394736</v>
+        <v>0.515626481026402</v>
       </c>
       <c r="H15">
-        <v>0.6907196431366458</v>
+        <v>0.5134406876677531</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.861028311009591</v>
+        <v>1.783329923805468</v>
       </c>
       <c r="C16">
-        <v>1.613433875564112</v>
+        <v>0.4961277242689448</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.414351397341889</v>
+        <v>0.6427546993909061</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.348276604595583</v>
+        <v>0.4991253768858144</v>
       </c>
       <c r="H16">
-        <v>0.6408480078573859</v>
+        <v>0.510604390254656</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.597713574124953</v>
+        <v>1.712524859856956</v>
       </c>
       <c r="C17">
-        <v>1.54335193111956</v>
+        <v>0.4767021452310587</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.291661875745575</v>
+        <v>0.6161556817610716</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.274665699795406</v>
+        <v>0.4892438108791453</v>
       </c>
       <c r="H17">
-        <v>0.6119472159982706</v>
+        <v>0.5090451672384688</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.447405877179335</v>
+        <v>1.671807380953339</v>
       </c>
       <c r="C18">
-        <v>1.50334364899112</v>
+        <v>0.4655209635517963</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.222248897484434</v>
+        <v>0.600880043088651</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.233497747479106</v>
+        <v>0.4836475927953643</v>
       </c>
       <c r="H18">
-        <v>0.5958938196273778</v>
+        <v>0.5082142070544933</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.396699222176949</v>
+        <v>1.658022429374455</v>
       </c>
       <c r="C19">
-        <v>1.489845999767226</v>
+        <v>0.4617338058338305</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.198933075231295</v>
+        <v>0.5957118922657116</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.219749970101731</v>
+        <v>0.4817676981824803</v>
       </c>
       <c r="H19">
-        <v>0.5905515597136741</v>
+        <v>0.5079441171771748</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.625622691675403</v>
+        <v>1.720061371349175</v>
       </c>
       <c r="C20">
-        <v>1.550780339912592</v>
+        <v>0.4787708674225541</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.304599928834406</v>
+        <v>0.6189847448771815</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>1.282378045848503</v>
+        <v>0.4902866461563917</v>
       </c>
       <c r="H20">
-        <v>0.6149636731576038</v>
+        <v>0.50920431990167</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.40936477217349</v>
+        <v>1.928598937042068</v>
       </c>
       <c r="C21">
-        <v>1.759367008305048</v>
+        <v>0.535917029375014</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.674407075924123</v>
+        <v>0.6974657751179762</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.507606288048578</v>
+        <v>0.5199624057202925</v>
       </c>
       <c r="H21">
-        <v>0.7041656952787605</v>
+        <v>0.5142293064062642</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.934733024531738</v>
+        <v>2.064968203013393</v>
       </c>
       <c r="C22">
-        <v>1.899205482024001</v>
+        <v>0.5731955951446253</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.929573684665129</v>
+        <v>0.7489896073408175</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.667853682178986</v>
+        <v>0.5401629800573744</v>
       </c>
       <c r="H22">
-        <v>0.7687438403944498</v>
+        <v>0.5181119324109886</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.652970341050548</v>
+        <v>1.992177769911962</v>
       </c>
       <c r="C23">
-        <v>1.824203862875095</v>
+        <v>0.5533055844457522</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.7919762911134</v>
+        <v>0.7214679965777293</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>1.580989951541483</v>
+        <v>0.529306488857884</v>
       </c>
       <c r="H23">
-        <v>0.7336368675827032</v>
+        <v>0.5159843538336588</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.613001660407576</v>
+        <v>1.716654147943757</v>
       </c>
       <c r="C24">
-        <v>1.547421084146947</v>
+        <v>0.4778356391277043</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.298747170072502</v>
+        <v>0.6177056743350704</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.278887733146263</v>
+        <v>0.489814916417771</v>
       </c>
       <c r="H24">
-        <v>0.6135981946403604</v>
+        <v>0.5091321632287418</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.533870551322934</v>
+        <v>1.419746781554693</v>
       </c>
       <c r="C25">
-        <v>1.260073809349535</v>
+        <v>0.3961178371353071</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.809809360700527</v>
+        <v>0.5066626035542185</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.996847334587514</v>
+        <v>0.4505420410414587</v>
       </c>
       <c r="H25">
-        <v>0.505456123822853</v>
+        <v>0.5042520343596237</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.201286128529318</v>
+        <v>3.76358121960601</v>
       </c>
       <c r="C2">
-        <v>0.3356557433913565</v>
+        <v>1.054690124592668</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4255167328346232</v>
+        <v>1.474225882057695</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.4243298004187892</v>
+        <v>0.8161038350509102</v>
       </c>
       <c r="H2">
-        <v>0.5027521521928691</v>
+        <v>0.4392212704742349</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.053283970701386</v>
+        <v>3.251787761935191</v>
       </c>
       <c r="C3">
-        <v>0.2944854172539522</v>
+        <v>0.9180139669377354</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3708373693408618</v>
+        <v>1.257257514749341</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.4081752012819067</v>
+        <v>0.7061796956423052</v>
       </c>
       <c r="H3">
-        <v>0.5030086175844133</v>
+        <v>0.4007382842373488</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9624234431025798</v>
+        <v>2.941249032573523</v>
       </c>
       <c r="C4">
-        <v>0.2691076642603889</v>
+        <v>0.8349683356571802</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3373969496919926</v>
+        <v>1.12792671351248</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3990250212695656</v>
+        <v>0.643724449547534</v>
       </c>
       <c r="H4">
-        <v>0.5037832496148127</v>
+        <v>0.3797341183023661</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9253994836014385</v>
+        <v>2.815458311969053</v>
       </c>
       <c r="C5">
-        <v>0.2587408941710976</v>
+        <v>0.8012989987248602</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3238001751638819</v>
+        <v>1.076037846327452</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.39548596248693</v>
+        <v>0.6193879507102054</v>
       </c>
       <c r="H5">
-        <v>0.5042525617249822</v>
+        <v>0.3717644063955561</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9192518053934009</v>
+        <v>2.794611771643702</v>
       </c>
       <c r="C6">
-        <v>0.2570179757479139</v>
+        <v>0.7957173615608895</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3215441955878049</v>
+        <v>1.067466532080644</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3949096573982871</v>
+        <v>0.6154100523571628</v>
       </c>
       <c r="H6">
-        <v>0.504339725194356</v>
+        <v>0.370474739450529</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9619241163084098</v>
+        <v>2.939549730496879</v>
       </c>
       <c r="C7">
-        <v>0.2689679564061009</v>
+        <v>0.8345136197576437</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3372134593206795</v>
+        <v>1.127223825702259</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.398976528911021</v>
+        <v>0.6433919162235355</v>
       </c>
       <c r="H7">
-        <v>0.5037889588845417</v>
+        <v>0.3796243360270921</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.150251581965676</v>
+        <v>3.586234221137886</v>
       </c>
       <c r="C8">
-        <v>0.3214806048942762</v>
+        <v>1.007352471326357</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4066338917371013</v>
+        <v>1.398503113591019</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.4185979467954439</v>
+        <v>0.7770591367882389</v>
       </c>
       <c r="H8">
-        <v>0.5027115549025325</v>
+        <v>0.425362849607879</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.519730955940133</v>
+        <v>4.892873284748021</v>
       </c>
       <c r="C9">
-        <v>0.4236886130502171</v>
+        <v>1.355702933209557</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5439627685100561</v>
+        <v>1.969985400574643</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.463340775190062</v>
+        <v>1.087036166739821</v>
       </c>
       <c r="H9">
-        <v>0.505566334961685</v>
+        <v>0.5395114240390058</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791410350719502</v>
+        <v>5.891238506512593</v>
       </c>
       <c r="C10">
-        <v>0.4983432279729527</v>
+        <v>1.621474063491348</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6457930840560522</v>
+        <v>2.428517273026316</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.500264868217414</v>
+        <v>1.356842865033229</v>
       </c>
       <c r="H10">
-        <v>0.5107912738788514</v>
+        <v>0.6442266831198538</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915081600282861</v>
+        <v>6.357863884704614</v>
       </c>
       <c r="C11">
-        <v>0.532218142210013</v>
+        <v>1.745660395819982</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6923671657365134</v>
+        <v>2.649714354436455</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.5179929272211155</v>
+        <v>1.492296423855521</v>
       </c>
       <c r="H11">
-        <v>0.5138689993109722</v>
+        <v>0.698040318373188</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.96192646907997</v>
+        <v>6.536776269594498</v>
       </c>
       <c r="C12">
-        <v>0.545033839025109</v>
+        <v>1.793277532176944</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7100432713122729</v>
+        <v>2.735739237604477</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.5248440704440895</v>
+        <v>1.54578887241675</v>
       </c>
       <c r="H12">
-        <v>0.5151370067448227</v>
+        <v>0.719477548022212</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.951836977070855</v>
+        <v>6.498138378306976</v>
       </c>
       <c r="C13">
-        <v>0.5422742772429388</v>
+        <v>1.782993930830344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7062345931862382</v>
+        <v>2.717103345227969</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.5233623560704075</v>
+        <v>1.534163808089318</v>
       </c>
       <c r="H13">
-        <v>0.514859330039144</v>
+        <v>0.7148104607827861</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.918935282368579</v>
+        <v>6.372536102407253</v>
       </c>
       <c r="C14">
-        <v>0.533272735682317</v>
+        <v>1.749565291133024</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.693820577850417</v>
+        <v>2.656743389353593</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5185537877710544</v>
+        <v>1.496650819240784</v>
       </c>
       <c r="H14">
-        <v>0.5139712538843924</v>
+        <v>0.6997816445027922</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.898783810783641</v>
+        <v>6.295902895163806</v>
       </c>
       <c r="C15">
-        <v>0.5277574797835314</v>
+        <v>1.729170087287343</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.68622188337892</v>
+        <v>2.620080882363709</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.515626481026402</v>
+        <v>1.473971671394764</v>
       </c>
       <c r="H15">
-        <v>0.5134406876677531</v>
+        <v>0.6907196431366458</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783329923805468</v>
+        <v>5.861028311009875</v>
       </c>
       <c r="C16">
-        <v>0.4961277242689448</v>
+        <v>1.613433875564056</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6427546993909061</v>
+        <v>2.414351397341875</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.4991253768858144</v>
+        <v>1.348276604595497</v>
       </c>
       <c r="H16">
-        <v>0.510604390254656</v>
+        <v>0.6408480078574144</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.712524859856956</v>
+        <v>5.597713574124896</v>
       </c>
       <c r="C17">
-        <v>0.4767021452310587</v>
+        <v>1.543351931119275</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6161556817610716</v>
+        <v>2.291661875745618</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.4892438108791453</v>
+        <v>1.274665699795378</v>
       </c>
       <c r="H17">
-        <v>0.5090451672384688</v>
+        <v>0.6119472159982706</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.671807380953339</v>
+        <v>5.447405877179108</v>
       </c>
       <c r="C18">
-        <v>0.4655209635517963</v>
+        <v>1.503343648990494</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.600880043088651</v>
+        <v>2.222248897484377</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.4836475927953643</v>
+        <v>1.233497747479163</v>
       </c>
       <c r="H18">
-        <v>0.5082142070544933</v>
+        <v>0.5958938196273493</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.658022429374455</v>
+        <v>5.396699222177119</v>
       </c>
       <c r="C19">
-        <v>0.4617338058338305</v>
+        <v>1.489845999767624</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5957118922657116</v>
+        <v>2.198933075231295</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.4817676981824803</v>
+        <v>1.219749970101702</v>
       </c>
       <c r="H19">
-        <v>0.5079441171771748</v>
+        <v>0.5905515597136741</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.720061371349175</v>
+        <v>5.625622691675574</v>
       </c>
       <c r="C20">
-        <v>0.4787708674225541</v>
+        <v>1.550780339912649</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6189847448771815</v>
+        <v>2.304599928834378</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.4902866461563917</v>
+        <v>1.282378045848475</v>
       </c>
       <c r="H20">
-        <v>0.50920431990167</v>
+        <v>0.6149636731576322</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928598937042068</v>
+        <v>6.409364772173546</v>
       </c>
       <c r="C21">
-        <v>0.535917029375014</v>
+        <v>1.759367008305105</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6974657751179762</v>
+        <v>2.674407075924123</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5199624057202925</v>
+        <v>1.507606288048578</v>
       </c>
       <c r="H21">
-        <v>0.5142293064062642</v>
+        <v>0.7041656952787605</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064968203013393</v>
+        <v>6.934733024531681</v>
       </c>
       <c r="C22">
-        <v>0.5731955951446253</v>
+        <v>1.899205482024058</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7489896073408175</v>
+        <v>2.929573684665201</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.5401629800573744</v>
+        <v>1.667853682178986</v>
       </c>
       <c r="H22">
-        <v>0.5181119324109886</v>
+        <v>0.7687438403944498</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992177769911962</v>
+        <v>6.652970341050661</v>
       </c>
       <c r="C23">
-        <v>0.5533055844457522</v>
+        <v>1.824203862874981</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7214679965777293</v>
+        <v>2.791976291113357</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.529306488857884</v>
+        <v>1.580989951541483</v>
       </c>
       <c r="H23">
-        <v>0.5159843538336588</v>
+        <v>0.7336368675826748</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.716654147943757</v>
+        <v>5.613001660407576</v>
       </c>
       <c r="C24">
-        <v>0.4778356391277043</v>
+        <v>1.547421084147174</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6177056743350704</v>
+        <v>2.298747170072474</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.489814916417771</v>
+        <v>1.278887733146234</v>
       </c>
       <c r="H24">
-        <v>0.5091321632287418</v>
+        <v>0.6135981946403604</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.419746781554693</v>
+        <v>4.533870551323105</v>
       </c>
       <c r="C25">
-        <v>0.3961178371353071</v>
+        <v>1.260073809349706</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5066626035542185</v>
+        <v>1.809809360700513</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.4505420410414587</v>
+        <v>0.9968473345875282</v>
       </c>
       <c r="H25">
-        <v>0.5042520343596237</v>
+        <v>0.5054561238227393</v>
       </c>
       <c r="I25">
         <v>0</v>
